--- a/output/default/15_count.xlsx
+++ b/output/default/15_count.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
-    <t>ans_str</t>
-  </si>
-  <si>
-    <t>None</t>
+    <t>list</t>
+  </si>
+  <si>
+    <t>count</t>
   </si>
   <si>
     <t>[[0, 0, 0], 1, 16, True]</t>
@@ -503,361 +503,487 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="1" t="s">
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B41">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="1" t="s">
+      <c r="B42" t="s">
         <v>41</v>
       </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="1" t="s">
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
         <v>42</v>
       </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="1" t="s">
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
         <v>43</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>1</v>
       </c>
     </row>
